--- a/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>29552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16903</v>
+        <v>15954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46076</v>
+        <v>48045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1777629304586343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1016789437681289</v>
+        <v>0.09597058321295573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.277157860882349</v>
+        <v>0.2890056309305018</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>17961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9945</v>
+        <v>9125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30695</v>
+        <v>30320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.159171468570153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08812951102919454</v>
+        <v>0.08086174045364054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2720197890216254</v>
+        <v>0.2686924549244079</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>47513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31867</v>
+        <v>31083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66111</v>
+        <v>68371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1702459292054798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1141837770509559</v>
+        <v>0.1113756347805302</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2368864873524606</v>
+        <v>0.2449840381031781</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>136691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120167</v>
+        <v>118198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149340</v>
+        <v>150289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8222370695413656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7228421391176508</v>
+        <v>0.7109943690694983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.898321056231871</v>
+        <v>0.9040294167870441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -833,19 +833,19 @@
         <v>94880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82146</v>
+        <v>82521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102896</v>
+        <v>103716</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8408285314298469</v>
+        <v>0.8408285314298471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7279802109783723</v>
+        <v>0.7313075450755913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9118704889708051</v>
+        <v>0.919138259546359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -854,19 +854,19 @@
         <v>231571</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>212973</v>
+        <v>210713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247217</v>
+        <v>248001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8297540707945201</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7631135126475395</v>
+        <v>0.7550159618968217</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8858162229490443</v>
+        <v>0.88862436521947</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>27924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17346</v>
+        <v>16042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44235</v>
+        <v>43054</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.112610713888387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0699515985204603</v>
+        <v>0.06469133669467866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.178385960475985</v>
+        <v>0.1736262188408332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>15972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8961</v>
+        <v>9310</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25819</v>
+        <v>26364</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1043993762002274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05857476215636</v>
+        <v>0.06085003912740673</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1687621296881799</v>
+        <v>0.1723255369439186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1000,19 +1000,19 @@
         <v>43896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30503</v>
+        <v>30004</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61995</v>
+        <v>61233</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1094775933256524</v>
+        <v>0.1094775933256523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07607471997711598</v>
+        <v>0.07483119051174815</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1546153349828578</v>
+        <v>0.1527154145063603</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>220047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203736</v>
+        <v>204917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>230625</v>
+        <v>231929</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8873892861116129</v>
+        <v>0.8873892861116131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8216140395240151</v>
+        <v>0.8263737811591667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9300484014795398</v>
+        <v>0.9353086633053215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -1050,19 +1050,19 @@
         <v>137019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>127172</v>
+        <v>126627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>144030</v>
+        <v>143681</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8956006237997726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8312378703118201</v>
+        <v>0.8276744630560809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9414252378436402</v>
+        <v>0.9391499608725932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>264</v>
@@ -1071,19 +1071,19 @@
         <v>357066</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>338967</v>
+        <v>339729</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>370459</v>
+        <v>370958</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8905224066743477</v>
+        <v>0.8905224066743476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8453846650171423</v>
+        <v>0.8472845854936393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9239252800228834</v>
+        <v>0.9251688094882519</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>29684</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20868</v>
+        <v>19784</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42019</v>
+        <v>41968</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09490397721503163</v>
+        <v>0.09490397721503159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06671810856020682</v>
+        <v>0.06325166614954107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1343380699519881</v>
+        <v>0.1341742594224755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1196,19 +1196,19 @@
         <v>6589</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3128</v>
+        <v>2778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12657</v>
+        <v>12067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03877534545083318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01840574692456167</v>
+        <v>0.01634551672041245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07448381470137728</v>
+        <v>0.07100995897653944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1217,19 +1217,19 @@
         <v>36274</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25016</v>
+        <v>26136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48505</v>
+        <v>49779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07514453467662402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05182368518360113</v>
+        <v>0.0541428267793998</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.100481767429397</v>
+        <v>0.1031228087234722</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>283100</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270765</v>
+        <v>270816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291916</v>
+        <v>293000</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9050960227849687</v>
+        <v>0.9050960227849685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8656619300480117</v>
+        <v>0.8658257405775245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9332818914397931</v>
+        <v>0.9367483338504587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>221</v>
@@ -1267,19 +1267,19 @@
         <v>163347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157279</v>
+        <v>157869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166808</v>
+        <v>167158</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9612246545491668</v>
+        <v>0.9612246545491667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9255161852986227</v>
+        <v>0.9289900410234603</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9815942530754382</v>
+        <v>0.9836544832795863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>464</v>
@@ -1288,19 +1288,19 @@
         <v>446446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>434215</v>
+        <v>432941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457704</v>
+        <v>456584</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9248554653233759</v>
+        <v>0.924855465323376</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.899518232570603</v>
+        <v>0.8968771912765279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9481763148163989</v>
+        <v>0.9458571732206001</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>30468</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21287</v>
+        <v>20930</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42302</v>
+        <v>42071</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08610757712730158</v>
+        <v>0.08610757712730156</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06016121670282885</v>
+        <v>0.05915152856512378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1195532865025227</v>
+        <v>0.1188980550668307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1413,19 +1413,19 @@
         <v>10737</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6428</v>
+        <v>6098</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16384</v>
+        <v>16658</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05116512117477445</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03062873115781436</v>
+        <v>0.02905830794343656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07807337267159138</v>
+        <v>0.07937870529871076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1434,19 +1434,19 @@
         <v>41205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29081</v>
+        <v>31297</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53491</v>
+        <v>55419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07309897360304557</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05158929906634433</v>
+        <v>0.05552110293511009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09489395500140384</v>
+        <v>0.09831452767434323</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>323370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311536</v>
+        <v>311767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>332551</v>
+        <v>332908</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9138924228726982</v>
+        <v>0.9138924228726983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8804467134974773</v>
+        <v>0.8811019449331692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9398387832971711</v>
+        <v>0.9408484714348762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>304</v>
@@ -1484,19 +1484,19 @@
         <v>199119</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>193472</v>
+        <v>193198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>203428</v>
+        <v>203758</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9488348788252255</v>
+        <v>0.9488348788252254</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9219266273284086</v>
+        <v>0.9206212947012893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9693712688421856</v>
+        <v>0.9709416920565634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>609</v>
@@ -1505,19 +1505,19 @@
         <v>522489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>510203</v>
+        <v>508275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>534613</v>
+        <v>532397</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9269010263969545</v>
+        <v>0.9269010263969544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9051060449985964</v>
+        <v>0.901685472325656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9484107009336555</v>
+        <v>0.9444788970648899</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>23240</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15416</v>
+        <v>15384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32671</v>
+        <v>32761</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0832936386435839</v>
+        <v>0.08329363864358388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05525407238559804</v>
+        <v>0.05513721045601085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1170971987845832</v>
+        <v>0.1174194413653943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1630,19 +1630,19 @@
         <v>6711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3593</v>
+        <v>3549</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11821</v>
+        <v>11607</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04570023225874788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02446665394370403</v>
+        <v>0.02416427600679959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08049304575284538</v>
+        <v>0.07904107307609198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1651,19 +1651,19 @@
         <v>29951</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21107</v>
+        <v>20938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40242</v>
+        <v>39687</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07033004711803501</v>
+        <v>0.07033004711803502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04956343541411871</v>
+        <v>0.04916590407662292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0944962540515135</v>
+        <v>0.09319312324963025</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>255767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>246336</v>
+        <v>246246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>263591</v>
+        <v>263623</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9167063613564163</v>
+        <v>0.916706361356416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8829028012154168</v>
+        <v>0.8825805586346057</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.944745927614402</v>
+        <v>0.9448627895439889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -1701,19 +1701,19 @@
         <v>140141</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135031</v>
+        <v>135245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143259</v>
+        <v>143303</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.954299767741252</v>
+        <v>0.9542997677412522</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9195069542471546</v>
+        <v>0.920958926923908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.975533346056296</v>
+        <v>0.9758357239932004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>503</v>
@@ -1722,19 +1722,19 @@
         <v>395908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385617</v>
+        <v>386172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404752</v>
+        <v>404921</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9296699528819649</v>
+        <v>0.9296699528819651</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9055037459484867</v>
+        <v>0.9068068767503696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9504365645858813</v>
+        <v>0.9508340959233771</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>14471</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9188</v>
+        <v>9123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21936</v>
+        <v>21834</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07063541696348016</v>
+        <v>0.07063541696348018</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04484820856566141</v>
+        <v>0.04453137855242555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1070725285265396</v>
+        <v>0.1065714117089943</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         <v>3848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1894</v>
+        <v>1784</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>7972</v>
@@ -1856,10 +1856,10 @@
         <v>0.04761076645037145</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02344075850373336</v>
+        <v>0.02208135811853149</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09864593056306806</v>
+        <v>0.09865483468067449</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -1868,19 +1868,19 @@
         <v>18319</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12458</v>
+        <v>12271</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27116</v>
+        <v>26566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0641224553962703</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04360862071642492</v>
+        <v>0.04295101761236741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09491375463723642</v>
+        <v>0.0929899924309209</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>190404</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182939</v>
+        <v>183041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195687</v>
+        <v>195752</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9293645830365197</v>
+        <v>0.9293645830365199</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8929274714734607</v>
+        <v>0.8934285882910056</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9551517914343387</v>
+        <v>0.9554686214475742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -1921,16 +1921,16 @@
         <v>72840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78918</v>
+        <v>79028</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9523892335496285</v>
+        <v>0.9523892335496287</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9013540694369325</v>
+        <v>0.9013451653193261</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9765592414962667</v>
+        <v>0.9779186418814687</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>409</v>
@@ -1939,19 +1939,19 @@
         <v>267368</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258571</v>
+        <v>259121</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273229</v>
+        <v>273416</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.93587754460373</v>
+        <v>0.9358775446037297</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9050862453627647</v>
+        <v>0.9070100075690791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.956391379283575</v>
+        <v>0.9570489823876326</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>6143</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2702</v>
+        <v>2667</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12574</v>
+        <v>12231</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05693934654592855</v>
+        <v>0.05693934654592856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02504911034886114</v>
+        <v>0.02472368043738341</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1165590888086252</v>
+        <v>0.1133757498099884</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9042</v>
+        <v>7678</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07667876211976342</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2928329819066085</v>
+        <v>0.2486587596236443</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2085,19 +2085,19 @@
         <v>8510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4355</v>
+        <v>4171</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15452</v>
+        <v>15611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0613320629877277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03138633412298088</v>
+        <v>0.03005900180348911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1113625698763068</v>
+        <v>0.1125055608221028</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>101736</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95305</v>
+        <v>95648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105177</v>
+        <v>105212</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9430606534540714</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8834409111913748</v>
+        <v>0.8866242501900116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9749508896511389</v>
+        <v>0.9752763195626166</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -2135,16 +2135,16 @@
         <v>28510</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21836</v>
+        <v>23200</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>30878</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9233212378802367</v>
+        <v>0.9233212378802366</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7071670180933913</v>
+        <v>0.7513412403763561</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2156,19 +2156,19 @@
         <v>130248</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>123306</v>
+        <v>123147</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>134403</v>
+        <v>134587</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9386679370122724</v>
+        <v>0.9386679370122722</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8886374301236933</v>
+        <v>0.8874944391778976</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.968613665877019</v>
+        <v>0.9699409981965108</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>161482</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>138206</v>
+        <v>136227</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>190216</v>
+        <v>191098</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09654572999107143</v>
+        <v>0.09654572999107146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08262968922257473</v>
+        <v>0.08144621024209657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1137248957514352</v>
+        <v>0.1142523877741546</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -2281,19 +2281,19 @@
         <v>64186</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51081</v>
+        <v>49686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82548</v>
+        <v>82757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07098942938712387</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05649558865560381</v>
+        <v>0.05495262141314547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09129741785422876</v>
+        <v>0.09152901146971104</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>213</v>
@@ -2302,19 +2302,19 @@
         <v>225668</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>194908</v>
+        <v>197331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>258344</v>
+        <v>258271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08757822623834077</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07564053034771717</v>
+        <v>0.07658115204466309</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1002592540849506</v>
+        <v>0.100230720776468</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>1511115</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1482381</v>
+        <v>1481499</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1534391</v>
+        <v>1536370</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9034542700089285</v>
+        <v>0.9034542700089288</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8862751042485649</v>
+        <v>0.8857476122258453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9173703107774254</v>
+        <v>0.9185537897579034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1132</v>
@@ -2352,19 +2352,19 @@
         <v>839979</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>821617</v>
+        <v>821408</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>853084</v>
+        <v>854479</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.929010570612876</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9087025821457713</v>
+        <v>0.9084709885302884</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9435044113443962</v>
+        <v>0.9450473785868545</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2566</v>
@@ -2373,19 +2373,19 @@
         <v>2351094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2318418</v>
+        <v>2318491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2381854</v>
+        <v>2379431</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9124217737616592</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8997407459150496</v>
+        <v>0.8997692792235319</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9243594696522828</v>
+        <v>0.9234188479553369</v>
       </c>
     </row>
     <row r="27">
